--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DEAD52-825C-455D-866F-545C696C5F07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5168F87B-B3BB-47A0-9347-107CAD1FD4DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="825" windowWidth="26310" windowHeight="18255" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="6075" yWindow="825" windowWidth="26310" windowHeight="18255" activeTab="1" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>.</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>panacea</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF502AD-4408-4993-BE91-9B79E0A99B48}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15929-3CC2-4C58-A610-B698FFC4555C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,19 +809,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1.2</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="F3">
         <v>5.2</v>
@@ -841,6 +844,26 @@
         <v>4.2</v>
       </c>
       <c r="F4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>2.1</v>
+      </c>
+      <c r="D5">
+        <v>3.1</v>
+      </c>
+      <c r="E5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F5">
         <v>5.2</v>
       </c>
     </row>

--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5168F87B-B3BB-47A0-9347-107CAD1FD4DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F5A30-F369-448F-BD42-B1E589BCF41A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="825" windowWidth="26310" windowHeight="18255" activeTab="1" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="600" yWindow="750" windowWidth="26310" windowHeight="18255" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>.</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>panacea</t>
+  </si>
+  <si>
+    <t>M_minax.jpg|Red markings on joints of claw and limb.</t>
+  </si>
+  <si>
+    <t>L_pugilator02.jpg|.</t>
+  </si>
+  <si>
+    <t>L_pugilator01.jpg|H-groove is silver-gray.</t>
   </si>
 </sst>
 </file>
@@ -475,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF502AD-4408-4993-BE91-9B79E0A99B48}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15929-3CC2-4C58-A610-B698FFC4555C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F5A30-F369-448F-BD42-B1E589BCF41A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E413B7-F0F3-4AA6-91D4-0A6C361015AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="750" windowWidth="26310" windowHeight="18255" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="7935" yWindow="105" windowWidth="26310" windowHeight="18255" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
-  <si>
-    <t>.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Trait</t>
   </si>
@@ -85,9 +82,6 @@
     <t>H-groove color</t>
   </si>
   <si>
-    <t>H-groove is same color as the rest of the carapace</t>
-  </si>
-  <si>
     <t>H-groove is silver-gray</t>
   </si>
   <si>
@@ -121,13 +115,49 @@
     <t>panacea</t>
   </si>
   <si>
-    <t>M_minax.jpg|Red markings on joints of claw and limb.</t>
-  </si>
-  <si>
-    <t>L_pugilator02.jpg|.</t>
-  </si>
-  <si>
-    <t>L_pugilator01.jpg|H-groove is silver-gray.</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>1.1.png|Narrow-front, with eyestalks close together.</t>
+  </si>
+  <si>
+    <t>1.2.png|Broad-front with eyestalks farther apart.</t>
+  </si>
+  <si>
+    <t>2.1.jpg|Carapace predominantly a solid single color.</t>
+  </si>
+  <si>
+    <t>2.2.jpg|Carapace multiple colors.</t>
+  </si>
+  <si>
+    <t>5.1.jpg|Red markings on joints of claw and limb.</t>
+  </si>
+  <si>
+    <t>H-groove is same color as (or not distinct from) the rest of the carapace</t>
+  </si>
+  <si>
+    <t>4.1.jpg|H-groove is similar color to carapace.</t>
+  </si>
+  <si>
+    <t>4.2a.jpg|H-groove is silver-gray.||4.2b.jpg|H-groove is silver-gray.</t>
+  </si>
+  <si>
+    <t>4.3a.jpg|H-groove is rusty-red.||4.3b.jpg|H-groove is rusty-red.</t>
+  </si>
+  <si>
+    <t>5.2.jpg|Joints lack distinctive red markings.</t>
+  </si>
+  <si>
+    <t>3.1a.jpg|Medium-to-dark blue carapace.||3.1b.jpg|Medium-to-dark blue carapace.</t>
+  </si>
+  <si>
+    <t>3.2.jpg|silver-tan carapace.</t>
+  </si>
+  <si>
+    <t>L_pugilator02.jpg|White/cream carapace with purple blotches.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +515,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,22 +529,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -522,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -531,10 +561,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -542,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -551,10 +581,10 @@
         <v>1.2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -562,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -571,10 +601,10 @@
         <v>2.1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -591,10 +621,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -611,10 +641,10 @@
         <v>3.1</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -631,10 +661,10 @@
         <v>3.2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -651,10 +681,10 @@
         <v>3.3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -671,10 +701,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -682,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -691,10 +721,10 @@
         <v>4.2</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -711,10 +741,10 @@
         <v>4.3</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -731,10 +761,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -751,10 +781,10 @@
         <v>5.2</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15929-3CC2-4C58-A610-B698FFC4555C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,27 +808,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="126.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1.2</v>
@@ -818,7 +848,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1.2</v>
@@ -838,7 +868,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2</v>
@@ -858,7 +888,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1.2</v>
@@ -873,6 +903,46 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <v>2.1</v>
+      </c>
+      <c r="D6">
+        <v>3.1</v>
+      </c>
+      <c r="E6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>1.2</v>
+      </c>
+      <c r="C7">
+        <v>2.1</v>
+      </c>
+      <c r="D7">
+        <v>3.1</v>
+      </c>
+      <c r="E7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F7">
         <v>5.2</v>
       </c>
     </row>

--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098AE22-56DF-4BFD-B864-BAE32CB8AD07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4248A908-25C0-404C-9908-54520D055466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="356">
   <si>
     <t>Trait</t>
   </si>
@@ -1099,6 +1099,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF502AD-4408-4993-BE91-9B79E0A99B48}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -1725,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -1876,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B03AE-DDB5-42CA-B0F1-F1BD4626B09E}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Software\TaxKeyGen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4248A908-25C0-404C-9908-54520D055466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04B8A03-DEAC-4D63-A7F5-B8F8A83A88E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="11700" yWindow="1725" windowWidth="26310" windowHeight="18255" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="359">
   <si>
     <t>Trait</t>
   </si>
@@ -1101,7 +1101,16 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Front Breadth: Test test test and more test.</t>
+  </si>
+  <si>
+    <t>Carapace Color: This is just a test to see if the system is working. Something about carapace color. Blah blah blah blah blah.</t>
+  </si>
+  <si>
+    <t>Claw Color: Perhaps another test will be useful.</t>
+  </si>
+  <si>
+    <t>Outer Manus Color: Let's try yet another test.</t>
   </si>
 </sst>
 </file>
@@ -1521,16 +1530,16 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1558,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1592,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1728,13 +1737,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1813,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1872,6 +1881,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1880,15 +1890,15 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.44140625" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1910,7 +1920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1921,7 +1931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.1</v>
       </c>
@@ -1932,7 +1942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
@@ -1943,7 +1953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -1998,7 +2008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -2009,7 +2019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.6</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.7</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.8</v>
       </c>
@@ -2042,7 +2052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.9</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>337</v>
       </c>
@@ -2064,7 +2074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4.2</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.3</v>
       </c>
@@ -2097,7 +2107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5.0999999999999996</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.2</v>
       </c>
@@ -2119,7 +2129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.1</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.2</v>
       </c>
@@ -2141,7 +2151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7.1</v>
       </c>
@@ -2152,7 +2162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7.2</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8.1</v>
       </c>
@@ -2174,7 +2184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.1999999999999993</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.3000000000000007</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8.4</v>
       </c>
@@ -2207,7 +2217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8.5</v>
       </c>
@@ -2218,7 +2228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8.6</v>
       </c>
@@ -2229,7 +2239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9.1</v>
       </c>
@@ -2240,7 +2250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9.1999999999999993</v>
       </c>
@@ -2251,7 +2261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10.1</v>
       </c>
@@ -2262,7 +2272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10.199999999999999</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10.3</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10.4</v>
       </c>
@@ -2295,7 +2305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10.5</v>
       </c>
@@ -2306,7 +2316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11.1</v>
       </c>
@@ -2317,7 +2327,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11.2</v>
       </c>
@@ -2328,7 +2338,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12.1</v>
       </c>
@@ -2339,7 +2349,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12.2</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12.3</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13.1</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13.2</v>
       </c>
@@ -2383,7 +2393,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14.1</v>
       </c>
@@ -2394,7 +2404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14.2</v>
       </c>
@@ -2405,7 +2415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15.1</v>
       </c>
@@ -2416,7 +2426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15.2</v>
       </c>
@@ -2427,7 +2437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15.3</v>
       </c>
@@ -2438,7 +2448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15.4</v>
       </c>
@@ -2449,7 +2459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15.5</v>
       </c>
@@ -2460,7 +2470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16.100000000000001</v>
       </c>
@@ -2471,7 +2481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16.2</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16.3</v>
       </c>
@@ -2493,7 +2503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16.399999999999999</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16.5</v>
       </c>
@@ -2515,7 +2525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16.600000000000001</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16.7</v>
       </c>
@@ -2537,7 +2547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17.100000000000001</v>
       </c>
@@ -2548,7 +2558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17.2</v>
       </c>
@@ -2559,7 +2569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>18.100000000000001</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18.2</v>
       </c>
@@ -2581,7 +2591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18.3</v>
       </c>
@@ -2592,7 +2602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>19.100000000000001</v>
       </c>
@@ -2603,7 +2613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>19.2</v>
       </c>
@@ -2627,15 +2637,15 @@
       <selection activeCell="A4" sqref="A1:T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="9" width="5.6640625" style="1"/>
-    <col min="11" max="13" width="5.6640625" style="1"/>
-    <col min="15" max="15" width="5.6640625" style="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="9" width="5.7109375" style="1"/>
+    <col min="11" max="13" width="5.7109375" style="1"/>
+    <col min="15" max="15" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2759,7 +2769,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2821,7 +2831,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2883,7 +2893,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2945,7 +2955,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3007,7 +3017,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -3069,7 +3079,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -3255,7 +3265,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -3317,7 +3327,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3379,7 +3389,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3441,7 +3451,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3503,7 +3513,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -3627,7 +3637,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -3689,7 +3699,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>262</v>
       </c>
@@ -3751,7 +3761,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>263</v>
       </c>
@@ -3813,7 +3823,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -3875,7 +3885,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -3937,7 +3947,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>267</v>
       </c>
@@ -4061,7 +4071,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>268</v>
       </c>
@@ -4123,7 +4133,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>269</v>
       </c>
@@ -4185,7 +4195,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>270</v>
       </c>
@@ -4247,7 +4257,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>271</v>
       </c>
@@ -4309,7 +4319,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>157</v>
       </c>
@@ -4371,7 +4381,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>245</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>183</v>
       </c>
@@ -4495,7 +4505,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
@@ -4557,7 +4567,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>151</v>
       </c>
@@ -4619,7 +4629,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>158</v>
       </c>
@@ -4681,7 +4691,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>246</v>
       </c>
@@ -4743,7 +4753,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>184</v>
       </c>
@@ -4805,7 +4815,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>152</v>
       </c>
@@ -4929,7 +4939,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
@@ -4969,7 +4979,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>81</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>83</v>
       </c>
@@ -5009,7 +5019,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>85</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>87</v>
       </c>
@@ -5049,7 +5059,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>89</v>
       </c>
@@ -5069,7 +5079,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>91</v>
       </c>
@@ -5089,7 +5099,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
@@ -5109,7 +5119,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>95</v>
       </c>
@@ -5129,7 +5139,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>97</v>
       </c>
@@ -5149,7 +5159,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>99</v>
       </c>
@@ -5169,7 +5179,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>101</v>
       </c>
@@ -5189,7 +5199,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>105</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>109</v>
       </c>
@@ -5249,7 +5259,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>111</v>
       </c>
@@ -5269,7 +5279,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>113</v>
       </c>
@@ -5289,7 +5299,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>115</v>
       </c>
@@ -5309,7 +5319,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>117</v>
       </c>
@@ -5329,7 +5339,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>119</v>
       </c>
@@ -5349,7 +5359,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>121</v>
       </c>
@@ -5369,7 +5379,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>123</v>
       </c>
@@ -5389,7 +5399,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>125</v>
       </c>
@@ -5409,7 +5419,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>127</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
@@ -5449,7 +5459,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>131</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>133</v>
       </c>
@@ -5489,7 +5499,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>135</v>
       </c>
@@ -5509,7 +5519,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>137</v>
       </c>
@@ -5529,7 +5539,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>139</v>
       </c>
@@ -5549,7 +5559,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>141</v>
       </c>
@@ -5569,7 +5579,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>143</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>145</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>147</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>149</v>
       </c>
@@ -5649,7 +5659,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>153</v>
       </c>
@@ -5669,7 +5679,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>155</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>159</v>
       </c>
@@ -5709,7 +5719,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>161</v>
       </c>
@@ -5729,7 +5739,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>163</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>165</v>
       </c>
@@ -5769,7 +5779,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
@@ -5789,7 +5799,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
@@ -5809,7 +5819,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
@@ -5829,7 +5839,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
@@ -5849,7 +5859,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>175</v>
       </c>
@@ -5869,7 +5879,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>177</v>
       </c>
@@ -5889,7 +5899,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
@@ -5909,7 +5919,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>181</v>
       </c>
@@ -5929,7 +5939,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>185</v>
       </c>
@@ -5949,7 +5959,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>187</v>
       </c>
@@ -5969,7 +5979,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>189</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>191</v>
       </c>
@@ -6009,7 +6019,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>193</v>
       </c>
@@ -6029,7 +6039,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>195</v>
       </c>
@@ -6049,7 +6059,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>197</v>
       </c>
@@ -6069,7 +6079,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>199</v>
       </c>
@@ -6089,7 +6099,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>201</v>
       </c>
@@ -6109,7 +6119,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>203</v>
       </c>
@@ -6129,7 +6139,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>205</v>
       </c>
@@ -6149,7 +6159,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>207</v>
       </c>
@@ -6169,7 +6179,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>209</v>
       </c>
@@ -6189,7 +6199,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>211</v>
       </c>
@@ -6209,7 +6219,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>213</v>
       </c>
@@ -6229,7 +6239,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>215</v>
       </c>
@@ -6249,7 +6259,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>217</v>
       </c>
@@ -6269,7 +6279,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>219</v>
       </c>
@@ -6289,7 +6299,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>221</v>
       </c>
@@ -6309,7 +6319,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>223</v>
       </c>
@@ -6329,7 +6339,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>225</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>227</v>
       </c>
@@ -6372,7 +6382,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>229</v>
       </c>
@@ -6392,7 +6402,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>231</v>
       </c>
@@ -6412,7 +6422,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>233</v>
       </c>
@@ -6432,7 +6442,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>235</v>
       </c>
@@ -6452,7 +6462,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>237</v>
       </c>
@@ -6472,7 +6482,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>239</v>
       </c>
@@ -6492,7 +6502,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>241</v>
       </c>
@@ -6512,7 +6522,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>243</v>
       </c>
@@ -6532,7 +6542,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>247</v>
       </c>
@@ -6552,7 +6562,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>249</v>
       </c>
@@ -6572,7 +6582,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>251</v>
       </c>
@@ -6592,7 +6602,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>253</v>
       </c>
@@ -6612,7 +6622,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>255</v>
       </c>
@@ -6632,7 +6642,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>257</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>78</v>
       </c>
@@ -6696,7 +6706,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>80</v>
       </c>
@@ -6740,7 +6750,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>82</v>
       </c>
@@ -6784,7 +6794,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>84</v>
       </c>
@@ -6828,7 +6838,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>86</v>
       </c>
@@ -6872,7 +6882,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>88</v>
       </c>
@@ -6916,7 +6926,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>90</v>
       </c>
@@ -6960,7 +6970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>92</v>
       </c>
@@ -7004,7 +7014,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>94</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>96</v>
       </c>
@@ -7092,7 +7102,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>98</v>
       </c>
@@ -7136,7 +7146,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>100</v>
       </c>
@@ -7180,7 +7190,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>102</v>
       </c>
@@ -7224,7 +7234,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>104</v>
       </c>
@@ -7268,7 +7278,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>106</v>
       </c>
@@ -7312,7 +7322,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>110</v>
       </c>
@@ -7356,7 +7366,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>112</v>
       </c>
@@ -7400,7 +7410,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>114</v>
       </c>
@@ -7444,7 +7454,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>116</v>
       </c>
@@ -7488,7 +7498,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>118</v>
       </c>
@@ -7532,7 +7542,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>120</v>
       </c>
@@ -7576,7 +7586,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>122</v>
       </c>
@@ -7620,7 +7630,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>124</v>
       </c>
@@ -7664,7 +7674,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>126</v>
       </c>
@@ -7708,7 +7718,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>128</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>130</v>
       </c>
@@ -7796,7 +7806,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>132</v>
       </c>
@@ -7840,7 +7850,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>134</v>
       </c>
@@ -7884,7 +7894,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>136</v>
       </c>
@@ -7928,7 +7938,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>138</v>
       </c>
@@ -7972,7 +7982,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>140</v>
       </c>
@@ -8016,7 +8026,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>142</v>
       </c>
@@ -8060,7 +8070,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>144</v>
       </c>
@@ -8104,7 +8114,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>146</v>
       </c>
@@ -8148,7 +8158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>148</v>
       </c>
@@ -8192,7 +8202,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>150</v>
       </c>
@@ -8236,7 +8246,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>154</v>
       </c>
@@ -8280,7 +8290,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>156</v>
       </c>
@@ -8324,7 +8334,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>160</v>
       </c>
@@ -8368,7 +8378,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>162</v>
       </c>
@@ -8412,7 +8422,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>164</v>
       </c>
@@ -8456,7 +8466,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -8500,7 +8510,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
@@ -8544,7 +8554,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>170</v>
       </c>
@@ -8588,7 +8598,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>172</v>
       </c>
@@ -8632,7 +8642,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>174</v>
       </c>
@@ -8676,7 +8686,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>176</v>
       </c>
@@ -8720,7 +8730,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>178</v>
       </c>
@@ -8764,7 +8774,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>180</v>
       </c>
@@ -8808,7 +8818,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>182</v>
       </c>
@@ -8852,7 +8862,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>186</v>
       </c>
@@ -8896,7 +8906,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>188</v>
       </c>
@@ -8940,7 +8950,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>190</v>
       </c>
@@ -8984,7 +8994,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>192</v>
       </c>
@@ -9028,7 +9038,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>194</v>
       </c>
@@ -9072,7 +9082,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>196</v>
       </c>
@@ -9116,7 +9126,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>198</v>
       </c>
@@ -9160,7 +9170,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>200</v>
       </c>
@@ -9204,7 +9214,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>202</v>
       </c>
@@ -9248,7 +9258,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>204</v>
       </c>
@@ -9292,7 +9302,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>206</v>
       </c>
@@ -9336,7 +9346,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>208</v>
       </c>
@@ -9380,7 +9390,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>210</v>
       </c>
@@ -9424,7 +9434,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>212</v>
       </c>
@@ -9468,7 +9478,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>214</v>
       </c>
@@ -9512,7 +9522,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>216</v>
       </c>
@@ -9556,7 +9566,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>218</v>
       </c>
@@ -9600,7 +9610,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>220</v>
       </c>
@@ -9644,7 +9654,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>222</v>
       </c>
@@ -9688,7 +9698,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>224</v>
       </c>
@@ -9732,7 +9742,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>226</v>
       </c>
@@ -9776,7 +9786,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>228</v>
       </c>
@@ -9820,7 +9830,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>230</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>232</v>
       </c>
@@ -9908,7 +9918,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>234</v>
       </c>
@@ -9952,7 +9962,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>236</v>
       </c>
@@ -9996,7 +10006,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>238</v>
       </c>
@@ -10040,7 +10050,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>240</v>
       </c>
@@ -10084,7 +10094,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>242</v>
       </c>
@@ -10128,7 +10138,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>244</v>
       </c>
@@ -10172,7 +10182,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>248</v>
       </c>
@@ -10216,7 +10226,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>250</v>
       </c>
@@ -10260,7 +10270,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>252</v>
       </c>
@@ -10304,7 +10314,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>254</v>
       </c>
@@ -10348,7 +10358,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>256</v>
       </c>
@@ -10392,7 +10402,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>258</v>
       </c>
@@ -10463,19 +10473,19 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="76.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="76.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10495,7 +10505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10515,7 +10525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10535,7 +10545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10555,7 +10565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10575,7 +10585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10595,7 +10605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10615,7 +10625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10635,7 +10645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10655,7 +10665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10675,7 +10685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10695,7 +10705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10715,7 +10725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10735,7 +10745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10755,7 +10765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10775,7 +10785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10795,7 +10805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -10815,7 +10825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -10835,7 +10845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -10875,7 +10885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -10895,7 +10905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10915,7 +10925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -10935,7 +10945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -10955,7 +10965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -10975,7 +10985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -10995,7 +11005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -11015,7 +11025,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -11035,7 +11045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -11055,7 +11065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -11075,7 +11085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -11095,7 +11105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -11115,7 +11125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -11135,7 +11145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10</v>
       </c>
@@ -11155,7 +11165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -11195,7 +11205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -11215,7 +11225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -11235,7 +11245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -11255,7 +11265,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11</v>
       </c>
@@ -11275,7 +11285,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -11295,7 +11305,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -11315,7 +11325,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -11335,7 +11345,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -11355,7 +11365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13</v>
       </c>
@@ -11375,7 +11385,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -11395,7 +11405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -11415,7 +11425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15</v>
       </c>
@@ -11435,7 +11445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15</v>
       </c>
@@ -11455,7 +11465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15</v>
       </c>
@@ -11475,7 +11485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -11495,7 +11505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -11515,7 +11525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
@@ -11535,7 +11545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16</v>
       </c>
@@ -11555,7 +11565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -11575,7 +11585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
@@ -11595,7 +11605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -11615,7 +11625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
@@ -11635,7 +11645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16</v>
       </c>
@@ -11655,7 +11665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17</v>
       </c>
@@ -11675,7 +11685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17</v>
       </c>
@@ -11695,7 +11705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>18</v>
       </c>
@@ -11715,7 +11725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
@@ -11735,7 +11745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
@@ -11755,7 +11765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>19</v>
       </c>
@@ -11775,7 +11785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>19</v>
       </c>

--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04B8A03-DEAC-4D63-A7F5-B8F8A83A88E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AFE0B9-6585-4B8F-BD1D-AA323D76D666}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1725" windowWidth="26310" windowHeight="18255" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="11700" yWindow="1725" windowWidth="26310" windowHeight="18255" activeTab="1" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="361">
   <si>
     <t>Trait</t>
   </si>
@@ -1101,16 +1101,22 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Front Breadth: Test test test and more test.</t>
-  </si>
-  <si>
-    <t>Carapace Color: This is just a test to see if the system is working. Something about carapace color. Blah blah blah blah blah.</t>
-  </si>
-  <si>
-    <t>Claw Color: Perhaps another test will be useful.</t>
-  </si>
-  <si>
-    <t>Outer Manus Color: Let's try yet another test.</t>
+    <t>The front of a fiddler crab refers to the extension of the carapace between the base of the eyestalks; front breadth therefore refers to the distance between the base of the eyestalks. Many species have the eyestalks quite close-together (&amp;ldquo;narrow-fronts&amp;rdquo;) while others have them well separated (&amp;ldquo;broad-fronts&amp;rdquo;). In most species this is reasonable clear, but individuals in some may appear on the border. Also, the breadth can change as crabs get larger. There is variation within species, and the breadth of the front changes as crabs get older and larger (&lt;em&gt;e.g.,&lt;/em&gt; within broad-front species, the front gradually gets wider as the crab ages, with smaller/younger crabs having narrower fronts than larger/older crabs).</t>
+  </si>
+  <si>
+    <t>The &amp;ldquo;H-groove&amp;rdquo; refers to a series of grooves on the center of the carapace, generally a bit closer to the back of the crab than the front, which roughly resembles the capital letter H. In most species this groove blends fairly well into the carapace (without close examnation) but in a few these grooves can be strikingly different colored and can serve as diagnostic indicators.</t>
+  </si>
+  <si>
+    <t>4.jpg|.</t>
+  </si>
+  <si>
+    <t>1.png|An illustration of front breadth.</t>
+  </si>
+  <si>
+    <t>Carapace color is a useful, but often complicated character to differentiate species. Some species tend to have very simple, diagnostic color patterns across all individuals; others can vary quite a bit among individuals of the same species. An additional complication is that in some species color can vary with maturity, sexual state, temperature, or even time of day. In particular, males in some species go through a carapace &amp;ldquo;whitening&amp;rdquo; where they have darker colors when they first emerge from burrows but get lighter and lighter as they get active and the heat goes up. All of this leads to a lot of potential variation within certain species, making it hard to simply and precisely describe patterns of field characters. Another complication is that many fiddler crabs tend to be covered with sand or mud which may hide the otherwise diagnostic colors in the field, with some species more susceptible to this than others (based on preferred habitat). When collected, fiddlers often lose their color and specimens which have stored in museums tend to bereft of most, if not all, color.</t>
+  </si>
+  <si>
+    <t>2.1.jpg|Carapace predominantly a single solid color</t>
   </si>
 </sst>
 </file>
@@ -1529,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF502AD-4408-4993-BE91-9B79E0A99B48}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1576,7 @@
         <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1601,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1618,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1737,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -1822,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1889,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B03AE-DDB5-42CA-B0F1-F1BD4626B09E}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Software\TaxKeyGen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AFE0B9-6585-4B8F-BD1D-AA323D76D666}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B08DD-FFB7-4915-9CA6-0505A7E19708}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1725" windowWidth="26310" windowHeight="18255" activeTab="1" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="10068" yWindow="84" windowWidth="20208" windowHeight="16548" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
-    <sheet name="Trait Variants" sheetId="3" r:id="rId2"/>
-    <sheet name="Species Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Old Trait Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Generic Trait Notes" sheetId="5" r:id="rId2"/>
+    <sheet name="Trait Variants" sheetId="3" r:id="rId3"/>
+    <sheet name="Taxa Data" sheetId="2" r:id="rId4"/>
+    <sheet name="Old Trait Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="374">
   <si>
     <t>Trait</t>
   </si>
@@ -1117,6 +1118,45 @@
   </si>
   <si>
     <t>2.1.jpg|Carapace predominantly a single solid color</t>
+  </si>
+  <si>
+    <t>Major pollex has conpspicuous pits on outside surface (can be hard to see in field)</t>
+  </si>
+  <si>
+    <t>6.1.jpg|Large flattened fingers on major claw, with virtually straight lower edge of dactyl</t>
+  </si>
+  <si>
+    <t>Major claw on male with large flattened fingers resembling shears, with almost no gape when closed and very straight edge along the lower margin of the movable fingler (dactyl)</t>
+  </si>
+  <si>
+    <t>Major claw on male with thinner, less flat fingers, not resembling shears, usually with clear gape when closed; generally some curvature or arc along the lower edge of the movable finger (dactyl)</t>
+  </si>
+  <si>
+    <t>6.2.jpg|Thinner, less-flat fingers on major claw (as illustrated by both crabs)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Generic Note Title</t>
+  </si>
+  <si>
+    <t>Generic Notes</t>
+  </si>
+  <si>
+    <t>Claw terminology</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>generic1.png|.</t>
+  </si>
+  <si>
+    <t>The claw has two articulating parts: the largest part is called the &lt;em&gt;manus&lt;/em&gt; and consists of the base of the claw and a fixed/unmovable finger called the &lt;em&gt;pollex.&lt;/em&gt; The smaller part is the articulated, movable finger called the &lt;em&gt;dactyl.&lt;/em&gt; In standard position, the dactyl is the upper finger and the pollex is the lower finger. The space between the pollex and the dactyl is referred to as the gape.</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1156,28 +1196,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,36 +1584,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF502AD-4408-4993-BE91-9B79E0A99B48}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1578,8 +1633,11 @@
       <c r="E2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1595,8 +1653,11 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1612,8 +1673,11 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1629,8 +1693,11 @@
       <c r="E5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1646,8 +1713,11 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1663,8 +1733,11 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1680,8 +1753,11 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1697,8 +1773,11 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1714,8 +1793,11 @@
       <c r="E10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1731,8 +1813,11 @@
       <c r="E11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1748,8 +1833,11 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1765,8 +1853,11 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1782,8 +1873,11 @@
       <c r="E14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1799,8 +1893,11 @@
       <c r="E15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1816,8 +1913,11 @@
       <c r="E16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1833,8 +1933,11 @@
       <c r="E17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1850,8 +1953,11 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1867,8 +1973,11 @@
       <c r="E19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1883,6 +1992,9 @@
       </c>
       <c r="E20" t="s">
         <v>28</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1892,30 +2004,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036619CA-5809-4F98-8FD4-41EF32221164}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B03AE-DDB5-42CA-B0F1-F1BD4626B09E}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1926,7 +2087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1937,7 +2098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.1</v>
       </c>
@@ -1948,7 +2109,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
@@ -1959,7 +2120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -1970,7 +2131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -1981,7 +2142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1992,7 +2153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -2003,7 +2164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -2014,7 +2175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -2025,7 +2186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.6</v>
       </c>
@@ -2036,7 +2197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.7</v>
       </c>
@@ -2047,7 +2208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.8</v>
       </c>
@@ -2058,7 +2219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.9</v>
       </c>
@@ -2069,8 +2230,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>337</v>
       </c>
       <c r="B16" t="s">
@@ -2080,7 +2241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
@@ -2091,7 +2252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.2</v>
       </c>
@@ -2102,7 +2263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.3</v>
       </c>
@@ -2113,7 +2274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.0999999999999996</v>
       </c>
@@ -2124,7 +2285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5.2</v>
       </c>
@@ -2135,29 +2296,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6.1</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6.2</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7.1</v>
       </c>
@@ -2168,7 +2329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7.2</v>
       </c>
@@ -2179,7 +2340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8.1</v>
       </c>
@@ -2190,7 +2351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.1999999999999993</v>
       </c>
@@ -2201,7 +2362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.3000000000000007</v>
       </c>
@@ -2212,7 +2373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.4</v>
       </c>
@@ -2223,7 +2384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8.5</v>
       </c>
@@ -2234,7 +2395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8.6</v>
       </c>
@@ -2245,7 +2406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9.1</v>
       </c>
@@ -2256,7 +2417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9.1999999999999993</v>
       </c>
@@ -2267,7 +2428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10.1</v>
       </c>
@@ -2278,7 +2439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10.199999999999999</v>
       </c>
@@ -2289,7 +2450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10.3</v>
       </c>
@@ -2300,7 +2461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10.4</v>
       </c>
@@ -2311,7 +2472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10.5</v>
       </c>
@@ -2322,7 +2483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11.1</v>
       </c>
@@ -2333,7 +2494,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11.2</v>
       </c>
@@ -2344,7 +2505,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12.1</v>
       </c>
@@ -2355,7 +2516,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12.2</v>
       </c>
@@ -2366,7 +2527,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12.3</v>
       </c>
@@ -2377,7 +2538,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13.1</v>
       </c>
@@ -2388,18 +2549,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13.2</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14.1</v>
       </c>
@@ -2410,7 +2571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14.2</v>
       </c>
@@ -2421,7 +2582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15.1</v>
       </c>
@@ -2432,7 +2593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>15.2</v>
       </c>
@@ -2443,7 +2604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>15.3</v>
       </c>
@@ -2454,7 +2615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15.4</v>
       </c>
@@ -2465,7 +2626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15.5</v>
       </c>
@@ -2476,7 +2637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>16.100000000000001</v>
       </c>
@@ -2487,7 +2648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16.2</v>
       </c>
@@ -2498,7 +2659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16.3</v>
       </c>
@@ -2509,7 +2670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16.399999999999999</v>
       </c>
@@ -2520,7 +2681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16.5</v>
       </c>
@@ -2531,7 +2692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16.600000000000001</v>
       </c>
@@ -2542,7 +2703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16.7</v>
       </c>
@@ -2553,7 +2714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>17.100000000000001</v>
       </c>
@@ -2564,7 +2725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>17.2</v>
       </c>
@@ -2575,7 +2736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18.100000000000001</v>
       </c>
@@ -2586,7 +2747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>18.2</v>
       </c>
@@ -2597,7 +2758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>18.3</v>
       </c>
@@ -2608,7 +2769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>19.100000000000001</v>
       </c>
@@ -2619,7 +2780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>19.2</v>
       </c>
@@ -2635,85 +2796,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15929-3CC2-4C58-A610-B698FFC4555C}">
   <dimension ref="A1:T212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:T37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="9" width="5.7109375" style="1"/>
-    <col min="11" max="13" width="5.7109375" style="1"/>
-    <col min="15" max="15" width="5.7109375" style="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="9" width="5.6640625" style="1"/>
+    <col min="11" max="13" width="5.6640625" style="1"/>
+    <col min="15" max="15" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2775,7 +2936,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2837,7 +2998,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2899,7 +3060,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2961,7 +3122,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3023,7 +3184,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -3043,7 +3204,7 @@
         <v>5.2</v>
       </c>
       <c r="G7" s="1">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H7" s="1">
         <v>7.1</v>
@@ -3085,7 +3246,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -3147,7 +3308,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -3209,7 +3370,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -3271,7 +3432,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -3333,7 +3494,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3395,7 +3556,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3457,7 +3618,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3519,7 +3680,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -3581,7 +3742,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -3643,7 +3804,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -3705,7 +3866,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>262</v>
       </c>
@@ -3767,7 +3928,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>263</v>
       </c>
@@ -3829,7 +3990,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -3891,7 +4052,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -3953,7 +4114,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -4015,7 +4176,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>267</v>
       </c>
@@ -4077,7 +4238,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>268</v>
       </c>
@@ -4139,7 +4300,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>269</v>
       </c>
@@ -4201,7 +4362,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>270</v>
       </c>
@@ -4263,7 +4424,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>271</v>
       </c>
@@ -4325,8 +4486,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B28" s="1">
@@ -4335,7 +4496,7 @@
       <c r="C28" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>337</v>
       </c>
       <c r="E28">
@@ -4387,8 +4548,8 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B29" s="1">
@@ -4449,8 +4610,8 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B30" s="1">
@@ -4459,7 +4620,7 @@
       <c r="C30" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>337</v>
       </c>
       <c r="E30" s="1">
@@ -4511,8 +4672,8 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B31" s="1">
@@ -4573,8 +4734,8 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B32" s="1">
@@ -4635,8 +4796,8 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B33" s="1">
@@ -4697,8 +4858,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B34" s="1">
@@ -4759,8 +4920,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B35" s="1">
@@ -4821,8 +4982,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="1">
@@ -4883,8 +5044,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B37" s="1">
@@ -4945,8 +5106,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="1">
@@ -4965,8 +5126,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="1">
@@ -4985,8 +5146,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="1">
@@ -5005,8 +5166,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B44" s="1">
@@ -5025,8 +5186,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B45" s="1">
@@ -5045,8 +5206,8 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="1">
@@ -5065,8 +5226,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="1">
@@ -5085,8 +5246,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B48" s="1">
@@ -5105,8 +5266,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="1">
@@ -5125,8 +5286,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B50" s="1">
@@ -5145,8 +5306,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B51" s="1">
@@ -5165,8 +5326,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B52" s="1">
@@ -5185,8 +5346,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B53" s="1">
@@ -5205,8 +5366,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B54" s="1">
@@ -5225,8 +5386,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B55" s="1">
@@ -5245,8 +5406,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B56" s="1">
@@ -5265,8 +5426,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="1">
@@ -5285,8 +5446,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B58" s="1">
@@ -5305,8 +5466,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B59" s="1">
@@ -5325,8 +5486,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B60" s="1">
@@ -5345,8 +5506,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B61" s="1">
@@ -5365,8 +5526,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B62" s="1">
@@ -5385,8 +5546,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B63" s="1">
@@ -5405,8 +5566,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B64" s="1">
@@ -5425,8 +5586,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B65" s="1">
@@ -5445,8 +5606,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B66" s="1">
@@ -5465,8 +5626,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B67" s="1">
@@ -5485,8 +5646,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B68" s="1">
@@ -5505,8 +5666,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B69" s="1">
@@ -5525,8 +5686,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B70" s="1">
@@ -5545,8 +5706,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="1">
@@ -5565,8 +5726,8 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="1">
@@ -5585,8 +5746,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="1">
@@ -5605,8 +5766,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B74" s="1">
@@ -5625,8 +5786,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B75" s="1">
@@ -5645,8 +5806,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B76" s="1">
@@ -5665,8 +5826,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B77" s="1">
@@ -5685,8 +5846,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B78" s="1">
@@ -5705,8 +5866,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B79" s="1">
@@ -5725,8 +5886,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B80" s="1">
@@ -5745,8 +5906,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B81" s="1">
@@ -5765,8 +5926,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B82" s="1">
@@ -5785,8 +5946,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B83" s="1">
@@ -5805,8 +5966,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B84" s="1">
@@ -5825,8 +5986,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B85" s="1">
@@ -5845,8 +6006,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="1">
@@ -5865,8 +6026,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="1">
@@ -5885,8 +6046,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="1">
@@ -5905,8 +6066,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B89" s="1">
@@ -5925,8 +6086,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B90" s="1">
@@ -5945,8 +6106,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B91" s="1">
@@ -5965,8 +6126,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B92" s="1">
@@ -5985,8 +6146,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B93" s="1">
@@ -6005,8 +6166,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B94" s="1">
@@ -6025,8 +6186,8 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B95" s="1">
@@ -6045,8 +6206,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B96" s="1">
@@ -6065,8 +6226,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B97" s="1">
@@ -6085,8 +6246,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B98" s="1">
@@ -6105,8 +6266,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B99" s="1">
@@ -6125,8 +6286,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B100" s="1">
@@ -6145,8 +6306,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B101" s="1">
@@ -6165,8 +6326,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B102" s="1">
@@ -6185,8 +6346,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B103" s="1">
@@ -6205,8 +6366,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B104" s="1">
@@ -6225,8 +6386,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B105" s="1">
@@ -6245,8 +6406,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B106" s="1">
@@ -6265,8 +6426,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B107" s="1">
@@ -6285,8 +6446,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B108" s="1">
@@ -6305,8 +6466,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B109" s="1">
@@ -6325,8 +6486,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B110" s="1">
@@ -6345,8 +6506,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B111" s="1">
@@ -6368,8 +6529,8 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B112" s="1">
@@ -6388,8 +6549,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B113" s="1">
@@ -6408,8 +6569,8 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B114" s="1">
@@ -6428,8 +6589,8 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B115" s="1">
@@ -6448,8 +6609,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B116" s="1">
@@ -6468,8 +6629,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B117" s="1">
@@ -6488,8 +6649,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B118" s="1">
@@ -6508,8 +6669,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B119" s="1">
@@ -6528,8 +6689,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B120" s="1">
@@ -6548,8 +6709,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B121" s="1">
@@ -6568,8 +6729,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B122" s="1">
@@ -6588,8 +6749,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B123" s="1">
@@ -6608,8 +6769,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B124" s="1">
@@ -6628,8 +6789,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B125" s="1">
@@ -6648,8 +6809,8 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B126" s="1">
@@ -6668,8 +6829,8 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B127" s="1">
@@ -6712,8 +6873,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B128" s="1">
@@ -6756,8 +6917,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B129" s="1">
@@ -6800,8 +6961,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B130" s="1">
@@ -6844,8 +7005,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B131" s="1">
@@ -6888,8 +7049,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B132" s="1">
@@ -6932,8 +7093,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B133" s="1">
@@ -6976,8 +7137,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B134" s="1">
@@ -7020,8 +7181,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B135" s="1">
@@ -7064,8 +7225,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B136" s="1">
@@ -7108,8 +7269,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B137" s="1">
@@ -7152,8 +7313,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B138" s="1">
@@ -7196,8 +7357,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B139" s="1">
@@ -7240,8 +7401,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B140" s="1">
@@ -7284,8 +7445,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B141" s="1">
@@ -7328,8 +7489,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B142" s="1">
@@ -7372,8 +7533,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B143" s="1">
@@ -7416,8 +7577,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B144" s="1">
@@ -7460,8 +7621,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B145" s="1">
@@ -7504,8 +7665,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B146" s="1">
@@ -7548,8 +7709,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B147" s="1">
@@ -7592,8 +7753,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B148" s="1">
@@ -7636,8 +7797,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B149" s="1">
@@ -7680,8 +7841,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B150" s="1">
@@ -7724,8 +7885,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B151" s="1">
@@ -7768,8 +7929,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B152" s="1">
@@ -7812,8 +7973,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B153" s="1">
@@ -7856,8 +8017,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B154" s="1">
@@ -7900,8 +8061,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B155" s="1">
@@ -7944,8 +8105,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B156" s="1">
@@ -7988,8 +8149,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B157" s="1">
@@ -8032,8 +8193,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B158" s="1">
@@ -8076,8 +8237,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B159" s="1">
@@ -8120,8 +8281,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B160" s="1">
@@ -8164,8 +8325,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B161" s="1">
@@ -8208,8 +8369,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B162" s="1">
@@ -8252,8 +8413,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B163" s="1">
@@ -8296,8 +8457,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B164" s="1">
@@ -8340,8 +8501,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B165" s="1">
@@ -8384,8 +8545,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B166" s="1">
@@ -8428,8 +8589,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B167" s="1">
@@ -8472,8 +8633,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="1">
@@ -8516,8 +8677,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B169" s="1">
@@ -8560,8 +8721,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="1">
@@ -8604,8 +8765,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B171" s="1">
@@ -8648,8 +8809,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="1">
@@ -8692,8 +8853,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B173" s="1">
@@ -8736,8 +8897,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B174" s="1">
@@ -8780,8 +8941,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B175" s="1">
@@ -8824,8 +8985,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B176" s="1">
@@ -8868,8 +9029,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B177" s="1">
@@ -8912,8 +9073,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B178" s="1">
@@ -8956,8 +9117,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B179" s="1">
@@ -9000,8 +9161,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B180" s="1">
@@ -9044,8 +9205,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B181" s="1">
@@ -9088,8 +9249,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B182" s="1">
@@ -9132,8 +9293,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B183" s="1">
@@ -9176,8 +9337,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B184" s="1">
@@ -9220,8 +9381,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B185" s="1">
@@ -9264,8 +9425,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B186" s="1">
@@ -9308,8 +9469,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B187" s="1">
@@ -9352,8 +9513,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B188" s="1">
@@ -9396,8 +9557,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B189" s="1">
@@ -9440,8 +9601,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B190" s="1">
@@ -9484,8 +9645,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B191" s="1">
@@ -9528,8 +9689,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B192" s="1">
@@ -9572,8 +9733,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B193" s="1">
@@ -9616,8 +9777,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B194" s="1">
@@ -9660,8 +9821,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B195" s="1">
@@ -9704,8 +9865,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B196" s="1">
@@ -9748,8 +9909,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B197" s="1">
@@ -9792,8 +9953,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B198" s="1">
@@ -9836,8 +9997,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B199" s="1">
@@ -9880,8 +10041,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B200" s="1">
@@ -9924,8 +10085,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B201" s="1">
@@ -9968,8 +10129,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B202" s="1">
@@ -10012,8 +10173,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B203" s="1">
@@ -10056,8 +10217,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B204" s="1">
@@ -10100,8 +10261,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B205" s="1">
@@ -10144,8 +10305,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B206" s="1">
@@ -10188,8 +10349,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B207" s="1">
@@ -10232,8 +10393,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B208" s="1">
@@ -10276,8 +10437,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B209" s="1">
@@ -10320,8 +10481,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B210" s="1">
@@ -10364,8 +10525,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B211" s="1">
@@ -10408,8 +10569,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B212" s="1">
@@ -10474,7 +10635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEFD6E7-8793-4B90-BAD1-2C64918E2F79}">
   <dimension ref="A1:F66"/>
   <sheetViews>
@@ -10482,16 +10643,16 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="76.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10511,7 +10672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10531,7 +10692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10551,7 +10712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10571,7 +10732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10591,7 +10752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10611,7 +10772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10631,7 +10792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10651,7 +10812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10671,7 +10832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10691,7 +10852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10711,7 +10872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10731,7 +10892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10751,7 +10912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10771,7 +10932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10791,7 +10952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10801,7 +10962,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>337</v>
       </c>
       <c r="E16" t="s">
@@ -10811,7 +10972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -10831,7 +10992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -10851,7 +11012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -10871,7 +11032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -10891,7 +11052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -10911,7 +11072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10931,7 +11092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -10951,7 +11112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -10971,7 +11132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
@@ -10991,7 +11152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -11011,7 +11172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -11031,7 +11192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8</v>
       </c>
@@ -11051,7 +11212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -11071,7 +11232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -11091,7 +11252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -11111,7 +11272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9</v>
       </c>
@@ -11131,7 +11292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -11151,7 +11312,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -11171,7 +11332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -11191,7 +11352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -11211,7 +11372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -11231,7 +11392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
@@ -11251,7 +11412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11</v>
       </c>
@@ -11271,7 +11432,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11</v>
       </c>
@@ -11291,7 +11452,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -11311,7 +11472,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12</v>
       </c>
@@ -11331,7 +11492,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12</v>
       </c>
@@ -11351,7 +11512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13</v>
       </c>
@@ -11371,7 +11532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13</v>
       </c>
@@ -11391,7 +11552,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -11411,7 +11572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -11431,7 +11592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15</v>
       </c>
@@ -11451,7 +11612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>15</v>
       </c>
@@ -11471,7 +11632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>15</v>
       </c>
@@ -11491,7 +11652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -11511,7 +11672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15</v>
       </c>
@@ -11531,7 +11692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>16</v>
       </c>
@@ -11551,7 +11712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16</v>
       </c>
@@ -11571,7 +11732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16</v>
       </c>
@@ -11591,7 +11752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16</v>
       </c>
@@ -11611,7 +11772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
@@ -11631,7 +11792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16</v>
       </c>
@@ -11651,7 +11812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16</v>
       </c>
@@ -11671,7 +11832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>17</v>
       </c>
@@ -11691,7 +11852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>17</v>
       </c>
@@ -11711,7 +11872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
@@ -11731,7 +11892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>18</v>
       </c>
@@ -11751,7 +11912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>18</v>
       </c>
@@ -11771,7 +11932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>19</v>
       </c>
@@ -11791,7 +11952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>19</v>
       </c>

--- a/taxonomic key data.xlsx
+++ b/taxonomic key data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Software\TaxKeyGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B08DD-FFB7-4915-9CA6-0505A7E19708}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B60E47-9349-4843-B256-449AF18FC2D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10068" yWindow="84" windowWidth="20208" windowHeight="16548" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
+    <workbookView xWindow="10068" yWindow="84" windowWidth="20208" windowHeight="16548" activeTab="2" xr2:uid="{10F64F7F-A08F-47A2-ACFC-F3D7F9FF1593}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="383">
   <si>
     <t>Trait</t>
   </si>
@@ -1111,9 +1111,6 @@
     <t>4.jpg|.</t>
   </si>
   <si>
-    <t>1.png|An illustration of front breadth.</t>
-  </si>
-  <si>
     <t>Carapace color is a useful, but often complicated character to differentiate species. Some species tend to have very simple, diagnostic color patterns across all individuals; others can vary quite a bit among individuals of the same species. An additional complication is that in some species color can vary with maturity, sexual state, temperature, or even time of day. In particular, males in some species go through a carapace &amp;ldquo;whitening&amp;rdquo; where they have darker colors when they first emerge from burrows but get lighter and lighter as they get active and the heat goes up. All of this leads to a lot of potential variation within certain species, making it hard to simply and precisely describe patterns of field characters. Another complication is that many fiddler crabs tend to be covered with sand or mud which may hide the otherwise diagnostic colors in the field, with some species more susceptible to this than others (based on preferred habitat). When collected, fiddlers often lose their color and specimens which have stored in museums tend to bereft of most, if not all, color.</t>
   </si>
   <si>
@@ -1156,7 +1153,37 @@
     <t>generic1.png|.</t>
   </si>
   <si>
-    <t>The claw has two articulating parts: the largest part is called the &lt;em&gt;manus&lt;/em&gt; and consists of the base of the claw and a fixed/unmovable finger called the &lt;em&gt;pollex.&lt;/em&gt; The smaller part is the articulated, movable finger called the &lt;em&gt;dactyl.&lt;/em&gt; In standard position, the dactyl is the upper finger and the pollex is the lower finger. The space between the pollex and the dactyl is referred to as the gape.</t>
+    <t>A claw is made up of two articulating parts: the largest part is called the &lt;em&gt;manus&lt;/em&gt; and consists of the base of the claw and a fixed/unmovable finger called the &lt;em&gt;pollex.&lt;/em&gt; The smaller part is the articulated, movable finger called the &lt;em&gt;dactyl.&lt;/em&gt; In standard position, the dactyl is the upper finger and the pollex is the lower finger. The space between the pollex and the dactyl is referred to as the gape.</t>
+  </si>
+  <si>
+    <t>1.png|.</t>
+  </si>
+  <si>
+    <t>14.1.jpg|Major dactyl is predominantly white</t>
+  </si>
+  <si>
+    <t>Tip of dactyl has a crescent-shaped tooth</t>
+  </si>
+  <si>
+    <t>19.2.jpg|Crescent-shaped tooth on tip of dactyl</t>
+  </si>
+  <si>
+    <t>16.7.jpg|Outer manus of major claw is pink</t>
+  </si>
+  <si>
+    <t>15.5.jpg|Major pollex is predominantly white</t>
+  </si>
+  <si>
+    <t>14.2.jpg|Major dactyl is pale pink-to-white</t>
+  </si>
+  <si>
+    <t>15.4.jpg|Major pollex is predominantly pale pink-to-white</t>
+  </si>
+  <si>
+    <t>3.10.jpg|Carapace is a mix of black and white blotches</t>
+  </si>
+  <si>
+    <t>3.9a.jpg|Carapace is a mix of blue and black and blotches (more black than blue)||3.9b.jpg|Carapace is a mix of blue and black and blotches (more blue than black)</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF502AD-4408-4993-BE91-9B79E0A99B48}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1631,7 +1658,7 @@
         <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1668,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -2008,7 +2035,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,16 +2047,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>367</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,13 +2064,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2056,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B03AE-DDB5-42CA-B0F1-F1BD4626B09E}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:C66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2227,7 +2254,7 @@
         <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2238,7 +2265,7 @@
         <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2301,10 +2328,10 @@
         <v>6.1</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2312,10 +2339,10 @@
         <v>6.2</v>
       </c>
       <c r="B23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
         <v>364</v>
-      </c>
-      <c r="C23" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2554,7 +2581,7 @@
         <v>13.2</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s">
         <v>306</v>
@@ -2568,7 +2595,7 @@
         <v>308</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2579,7 +2606,7 @@
         <v>335</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2623,7 +2650,7 @@
         <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2634,7 +2661,7 @@
         <v>349</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2711,7 +2738,7 @@
         <v>351</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2785,10 +2812,10 @@
         <v>19.2</v>
       </c>
       <c r="B66" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2800,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC15929-3CC2-4C58-A610-B698FFC4555C}">
   <dimension ref="A1:T212"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
